--- a/Git Team Workflow.xlsx
+++ b/Git Team Workflow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -553,15 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -573,34 +567,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,9 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E15"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -970,261 +970,264 @@
   <sheetData>
     <row r="1" spans="2:15" ht="33" customHeight="1"/>
     <row r="2" spans="2:15" ht="20" customHeight="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>98800333</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="10" spans="2:15" ht="20">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:15" ht="59" customHeight="1">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" spans="2:15" ht="59" customHeight="1">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="2:15" ht="20">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
     </row>
     <row r="15" spans="2:15" ht="43" customHeight="1">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="2:15" ht="43" customHeight="1">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="2:15" ht="43" customHeight="1">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="43" customHeight="1">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="2:15" ht="43" customHeight="1">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="2:15" ht="33" customHeight="1">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
@@ -1233,9 +1236,6 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1251,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -1270,8 +1270,8 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="3" t="s">
@@ -1279,18 +1279,18 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="45">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1300,62 +1300,62 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="2:5" ht="33" customHeight="1">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="23"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="2:5" ht="18">
-      <c r="E12" s="15"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="2:5" ht="18">
       <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="2:5" ht="30">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="2:5" ht="18">
-      <c r="E15" s="15"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="2:5" ht="18">
       <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" ht="18">
       <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5" ht="18">
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" ht="18">
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
@@ -1508,35 +1508,35 @@
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="16"/>
+      <c r="B57" s="12"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1580,100 +1580,100 @@
       </c>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="24"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="25" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="28"/>
-      <c r="C4" s="26" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="22"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="28"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="28"/>
-      <c r="C6" s="26" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="29"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="22"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="22"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="29"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="23"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
